--- a/Dokuordner/RACI-Chart-Excel.xlsx
+++ b/Dokuordner/RACI-Chart-Excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T450\Desktop\Modul 306\Modul-306\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T450\Desktop\Modul 306\Modul-306\Dokuordner\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="30">
   <si>
     <t>RACI Chart (Roles and Responsibilities Matrix)</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>Coder 5</t>
-  </si>
-  <si>
-    <t>'-</t>
   </si>
   <si>
     <t>Protocol</t>
@@ -124,7 +121,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -571,6 +568,37 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -615,37 +643,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="33">
@@ -1028,8 +1025,8 @@
   </sheetPr>
   <dimension ref="B1:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1076,24 +1073,24 @@
         <v>2</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
@@ -1113,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="43">
+      <c r="D8" s="28">
         <v>42996</v>
       </c>
       <c r="E8" s="22" t="s">
@@ -1143,24 +1140,24 @@
         <v>5</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
@@ -1221,11 +1218,11 @@
       <c r="H15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="48" t="s">
+      <c r="I15" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="44" t="s">
-        <v>29</v>
+      <c r="J15" s="29" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -1251,7 +1248,7 @@
       <c r="I16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="49" t="s">
+      <c r="J16" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1278,7 +1275,7 @@
       <c r="I17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="30" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1305,7 +1302,7 @@
       <c r="I18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="46" t="s">
+      <c r="J18" s="31" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1332,13 +1329,13 @@
       <c r="I19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="45" t="s">
-        <v>29</v>
+      <c r="J19" s="30" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="8" t="s">
@@ -1359,7 +1356,7 @@
       <c r="I20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="46" t="s">
+      <c r="J20" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1386,7 +1383,7 @@
       <c r="I21" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="47" t="s">
+      <c r="J21" s="32" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1395,25 +1392,25 @@
         <v>17</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="52" t="s">
+      <c r="D22" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="53" t="s">
+      <c r="I22" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="38" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1440,19 +1437,19 @@
       <c r="I23" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="47" t="s">
-        <v>29</v>
+      <c r="J23" s="32" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="3">
